--- a/working_files/result.xlsx
+++ b/working_files/result.xlsx
@@ -375,74 +375,334 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>___ dhammaṃ aham ādarena taṃ</v>
+        <v>Evaṃ me ___</v>
       </c>
       <c r="B1" t="str">
-        <v>vandāmi</v>
+        <v>sutaṃ.</v>
       </c>
       <c r="C1" t="str">
-        <v>vandami</v>
+        <v>sutāṃ.</v>
       </c>
       <c r="D1" t="str">
-        <v>vāndāmi</v>
+        <v>sūtaṃ.</v>
       </c>
       <c r="E1" t="str">
-        <v>vandāmī</v>
+        <v>suṭaṃ.</v>
       </c>
       <c r="F1" t="str">
-        <v>vaṅdāmi</v>
+        <v>sutam.</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>___ aham ādarena taṃ</v>
+        <v>ekaṃ samayaṃ bhagavā sāvatthiyaṃ viharati jetavane ___ ārāme.</v>
       </c>
       <c r="B2" t="str">
-        <v>dhammaṃ</v>
+        <v>anāthapiṇḍikassa</v>
       </c>
       <c r="C2" t="str">
-        <v>dhāmmaṃ</v>
+        <v>anathapiṇḍikassa</v>
       </c>
       <c r="D2" t="str">
-        <v>ḍhammaṃ</v>
+        <v>ānāthapiṇḍikassa</v>
       </c>
       <c r="E2" t="str">
-        <v>dhammam</v>
+        <v>anāthapīṇḍikassa</v>
       </c>
       <c r="F2" t="str">
-        <v>dhamaṃ</v>
+        <v>aṅāthapiṇḍikassa</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>___ taṃ</v>
+        <v>Atha kho āyasmā mahākassapo yena bhagavā ___ upasaṅkamitvā bhagavantaṃ abhivādetvā ekamantaṃ nisīdi. Ekamantaṃ nisinno kho āyasmā mahākassapo bhagavantaṃ etadavoca:</v>
       </c>
       <c r="B3" t="str">
-        <v>ādarena</v>
+        <v>tenupasaṅkami;</v>
       </c>
       <c r="C3" t="str">
-        <v>adarena</v>
+        <v>tenupāsaṅkami;</v>
       </c>
       <c r="D3" t="str">
-        <v>ādārena</v>
+        <v>tenupasaṅkamī;</v>
       </c>
       <c r="E3" t="str">
-        <v>ādareṅa</v>
+        <v>tenūpasaṅkami;</v>
       </c>
       <c r="F3" t="str">
-        <v>āḍarena</v>
+        <v>tenupasankami;</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>ko nu kho, bhante, hetu ko paccayo, yena pubbe appatarāni ceva ___ ahesuṃ bahutarā ca bhikkhū aññāya saṇṭhahiṃsu?</v>
+      </c>
+      <c r="B4" t="str">
+        <v>sikkhāpadāni</v>
+      </c>
+      <c r="C4" t="str">
+        <v>sikkhapadāni</v>
+      </c>
+      <c r="D4" t="str">
+        <v>sikkhāpādāni</v>
+      </c>
+      <c r="E4" t="str">
+        <v>sīkkhāpadāni</v>
+      </c>
+      <c r="F4" t="str">
+        <v>sikkhāpadāṅi</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Ko pana, bhante, hetu ko paccayo, yenetarahi bahutarāni ceva sikkhāpadāni appatarā ca bhikkhū aññāya ___</v>
+      </c>
+      <c r="B5" t="str">
+        <v>saṇṭhahantī”ti?</v>
+      </c>
+      <c r="C5" t="str">
+        <v>sāṇṭhahantī”ti?</v>
+      </c>
+      <c r="D5" t="str">
+        <v>saṇṭhahanti”ti?</v>
+      </c>
+      <c r="E5" t="str">
+        <v>saṇṭhahantī”tī?</v>
+      </c>
+      <c r="F5" t="str">
+        <v>saṇṭhahaṅtī”ti?</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Evañcetaṃ, kassapa, hoti sattesu hāyamānesu saddhamme ___ bahutarāni ceva sikkhāpadāni honti appatarā ca bhikkhū aññāya saṇṭhahanti.</v>
+      </c>
+      <c r="B6" t="str">
+        <v>antaradhāyamāne,</v>
+      </c>
+      <c r="C6" t="str">
+        <v>antaradhayamāne,</v>
+      </c>
+      <c r="D6" t="str">
+        <v>āntaradhāyamāne,</v>
+      </c>
+      <c r="E6" t="str">
+        <v>aṅtaradhāyamāne,</v>
+      </c>
+      <c r="F6" t="str">
+        <v>anṭaradhāyamāne,</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Na tāva, kassapa, saddhammassa antaradhānaṃ hoti yāva na ___ loke uppajjati.</v>
+      </c>
+      <c r="B7" t="str">
+        <v>saddhammappatirūpakaṃ</v>
+      </c>
+      <c r="C7" t="str">
+        <v>sāddhammappatirūpakaṃ</v>
+      </c>
+      <c r="D7" t="str">
+        <v>saddhammappatīrūpakaṃ</v>
+      </c>
+      <c r="E7" t="str">
+        <v>saddhammappatirupakaṃ</v>
+      </c>
+      <c r="F7" t="str">
+        <v>saddhammappaṭirūpakaṃ</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Seyyathāpi, kassapa, na tāva jātarūpassa antaradhānaṃ hoti yāva na ___ loke uppajjati.</v>
+      </c>
+      <c r="B8" t="str">
+        <v>jātarūpappatirūpakaṃ</v>
+      </c>
+      <c r="C8" t="str">
+        <v>jatarūpappatirūpakaṃ</v>
+      </c>
+      <c r="D8" t="str">
+        <v>jātārūpappatirūpakaṃ</v>
+      </c>
+      <c r="E8" t="str">
+        <v>jātarūpappatīrūpakaṃ</v>
+      </c>
+      <c r="F8" t="str">
+        <v>jātarupappatirūpakaṃ</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Na kho, kassapa, pathavīdhātu saddhammaṃ ___ na āpodhātu saddhammaṃ antaradhāpeti, na tejodhātu saddhammaṃ antaradhāpeti, na vāyodhātu saddhammaṃ antaradhāpeti;</v>
+      </c>
+      <c r="B9" t="str">
+        <v>antaradhāpeti,</v>
+      </c>
+      <c r="C9" t="str">
+        <v>antaradhapeti,</v>
+      </c>
+      <c r="D9" t="str">
+        <v>āntaradhāpeti,</v>
+      </c>
+      <c r="E9" t="str">
+        <v>antaradhāpetī,</v>
+      </c>
+      <c r="F9" t="str">
+        <v>aṅtaradhāpeti,</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>atha kho idheva te uppajjanti moghapurisā ye imaṃ saddhammaṃ ___</v>
+      </c>
+      <c r="B10" t="str">
+        <v>antaradhāpenti.</v>
+      </c>
+      <c r="C10" t="str">
+        <v>antaradhapenti.</v>
+      </c>
+      <c r="D10" t="str">
+        <v>āntaradhāpenti.</v>
+      </c>
+      <c r="E10" t="str">
+        <v>antaradhāpentī.</v>
+      </c>
+      <c r="F10" t="str">
+        <v>aṅtaradhāpenti.</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>___ kassapa, nāvā ādikeneva opilavati;</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Seyyathāpi,</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Seyyathapi,</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Seyyāthāpi,</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Seyyathāpī,</v>
+      </c>
+      <c r="F11" t="str">
+        <v>Seyyaṭhāpi,</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>na kho, kassapa, evaṃ ___ antaradhānaṃ hoti.</v>
+      </c>
+      <c r="B12" t="str">
+        <v>saddhammassa</v>
+      </c>
+      <c r="C12" t="str">
+        <v>sāddhammassa</v>
+      </c>
+      <c r="D12" t="str">
+        <v>saḍḍhammassa</v>
+      </c>
+      <c r="E12" t="str">
+        <v>saḍdhammassa</v>
+      </c>
+      <c r="F12" t="str">
+        <v>saddhamassa</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Pañca khome, kassapa, okkamaniyā dhammā saddhammassa sammosāya ___ saṃvattanti.</v>
+      </c>
+      <c r="B13" t="str">
+        <v>antaradhānāya</v>
+      </c>
+      <c r="C13" t="str">
+        <v>antaradhanāya</v>
+      </c>
+      <c r="D13" t="str">
+        <v>āntaradhānāya</v>
+      </c>
+      <c r="E13" t="str">
+        <v>aṅtaradhānāya</v>
+      </c>
+      <c r="F13" t="str">
+        <v>anṭaradhānāya</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>___ pañca?</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Katame</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Kātame</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Kaṭame</v>
+      </c>
+      <c r="E14" t="str">
+        <v/>
+      </c>
+      <c r="F14" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Idha, kassapa, bhikkhū ___ upāsakā upāsikāyo satthari agāravā viharanti appatissā, dhamme agāravā viharanti appatissā, saṅghe agāravā viharanti appatissā, sikkhāya agāravā viharanti appatissā, samādhismiṃ agāravā viharanti appatissā—</v>
+      </c>
+      <c r="B15" t="str">
+        <v>bhikkhuniyo</v>
+      </c>
+      <c r="C15" t="str">
+        <v>bhīkkhuniyo</v>
+      </c>
+      <c r="D15" t="str">
+        <v>bhikkhūniyo</v>
+      </c>
+      <c r="E15" t="str">
+        <v>bhikkhuṅiyo</v>
+      </c>
+      <c r="F15" t="str">
+        <v>bikkhuniyo</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Pañca khome, kassapa, dhammā saddhammassa ṭhitiyā asammosāya ___ saṃvattanti.</v>
+      </c>
+      <c r="B16" t="str">
+        <v>anantaradhānāya</v>
+      </c>
+      <c r="C16" t="str">
+        <v>anantaradhanāya</v>
+      </c>
+      <c r="D16" t="str">
+        <v>ānantaradhānāya</v>
+      </c>
+      <c r="E16" t="str">
+        <v>aṅantaradhānāya</v>
+      </c>
+      <c r="F16" t="str">
+        <v>ananṭaradhānāya</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F16"/>
   </ignoredErrors>
 </worksheet>
 </file>